--- a/TABLAS Y VARIABLES/SCRIPT(sql).xlsx
+++ b/TABLAS Y VARIABLES/SCRIPT(sql).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7500" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ALIMENTAR UNA TABLA SQL" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="123">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1639,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2553,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E41"/>
     </sheetView>
   </sheetViews>
@@ -3330,10 +3330,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3421,6 +3421,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
